--- a/data/trans_orig/Q4502-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q4502-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B637B60-FF5F-4DE9-B033-F70E5F80598F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76B93E4D-9DD5-4D50-9C84-001AE71A662A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0D9AF9DB-9431-4854-94D7-B9A9F5D6D65C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D0B6870B-F5BE-4DF1-8525-C7EC8E5E47C9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -3110,7 +3110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B42F05E-32B0-4D81-AE1D-AEA453A3D2CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2097CFC-2B23-4A21-922F-866821663838}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5634,7 +5634,7 @@
         <v>3211</v>
       </c>
       <c r="D51" s="7">
-        <v>3273512</v>
+        <v>3273511</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>106</v>
@@ -5697,7 +5697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA71F0E-69E0-45FA-BEDF-D45EE9BA4544}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E6EB43-15BF-4022-BFF5-EAB9F8E204FD}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6409,7 +6409,7 @@
         <v>2153</v>
       </c>
       <c r="N15" s="7">
-        <v>2310292</v>
+        <v>2310291</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>106</v>
@@ -6447,7 +6447,7 @@
         <v>509</v>
       </c>
       <c r="I16" s="7">
-        <v>541685</v>
+        <v>541684</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>450</v>
@@ -6462,7 +6462,7 @@
         <v>1163</v>
       </c>
       <c r="N16" s="7">
-        <v>1242458</v>
+        <v>1242459</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>453</v>
@@ -6498,7 +6498,7 @@
         <v>90</v>
       </c>
       <c r="I17" s="7">
-        <v>94099</v>
+        <v>94098</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>458</v>
@@ -6870,7 +6870,7 @@
         <v>71</v>
       </c>
       <c r="N24" s="7">
-        <v>71433</v>
+        <v>71434</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>404</v>
@@ -7008,7 +7008,7 @@
         <v>1630</v>
       </c>
       <c r="I27" s="7">
-        <v>1752546</v>
+        <v>1752545</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>106</v>
@@ -7023,7 +7023,7 @@
         <v>3483</v>
       </c>
       <c r="N27" s="7">
-        <v>3713688</v>
+        <v>3713689</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>106</v>
@@ -7843,7 +7843,7 @@
         <v>576</v>
       </c>
       <c r="N43" s="7">
-        <v>624793</v>
+        <v>624794</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>607</v>
@@ -8251,7 +8251,7 @@
         <v>6484</v>
       </c>
       <c r="N51" s="7">
-        <v>6960016</v>
+        <v>6960017</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>106</v>
@@ -8284,7 +8284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E99944F-A21F-4F6B-A486-BE46263EEC41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7493398B-1197-45DD-B21C-14E44729B617}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8981,7 +8981,7 @@
         <v>890</v>
       </c>
       <c r="I15" s="7">
-        <v>992248</v>
+        <v>992247</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>106</v>
@@ -10823,7 +10823,7 @@
         <v>3315</v>
       </c>
       <c r="I51" s="7">
-        <v>3519604</v>
+        <v>3519605</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>106</v>
